--- a/data/trans_dic/P54_A_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por contagiarse de coronavirus o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por contagiarse de coronavirus o ya le ha ocurrido (tasa de respuesta: 97,67%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -637,12 +638,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>87,44%</t>
+          <t>87,21%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>91,5%</t>
+          <t>91,22%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +653,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>92,89%</t>
+          <t>92,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>96,11%</t>
+          <t>96,27%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +668,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>90,02%</t>
+          <t>89,51%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>93,78%</t>
+          <t>93,72%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,56; 33,88</t>
+          <t>20,57; 34,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,24; 92,29</t>
+          <t>80,92; 91,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>80,67; 96,08</t>
+          <t>81,28; 95,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,74; 37,66</t>
+          <t>24,16; 39,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>87,15; 96,35</t>
+          <t>87,28; 96,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>86,16; 98,98</t>
+          <t>88,8; 99,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,92; 33,79</t>
+          <t>24,29; 33,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>85,87; 93,42</t>
+          <t>86,0; 92,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>87,74; 96,86</t>
+          <t>88,72; 96,68</t>
         </is>
       </c>
     </row>
@@ -747,12 +748,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88,44%</t>
+          <t>88,15%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>96,19%</t>
+          <t>96,06%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -762,12 +763,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>92,46%</t>
+          <t>92,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>94,49%</t>
+          <t>94,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -777,12 +778,12 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>90,36%</t>
+          <t>90,08%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>95,38%</t>
+          <t>95,3%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,39; 48,74</t>
+          <t>32,4; 49,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,15; 93,97</t>
+          <t>72,24; 94,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,07; 98,18</t>
+          <t>92,72; 98,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>40,39; 54,67</t>
+          <t>39,48; 53,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>87,07; 96,34</t>
+          <t>86,13; 95,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>90,3; 97,15</t>
+          <t>90,29; 97,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>38,64; 49,62</t>
+          <t>37,67; 49,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>83,26; 93,64</t>
+          <t>82,85; 93,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>92,77; 97,07</t>
+          <t>92,72; 97,04</t>
         </is>
       </c>
     </row>
@@ -857,12 +858,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>92,5%</t>
+          <t>91,82%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>90,27%</t>
+          <t>90,25%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -872,12 +873,12 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>93,19%</t>
+          <t>93,01%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>96,81%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -887,12 +888,12 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>92,85%</t>
+          <t>92,43%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>93,53%</t>
+          <t>93,6%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>39,44; 53,2</t>
+          <t>39,33; 53,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>85,02; 96,15</t>
+          <t>84,29; 95,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>84,0; 93,87</t>
+          <t>83,04; 94,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>46,16; 57,6</t>
+          <t>46,25; 58,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>88,95; 96,14</t>
+          <t>88,38; 95,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>94,38; 98,24</t>
+          <t>94,56; 98,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>44,96; 53,84</t>
+          <t>44,48; 53,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>89,15; 95,24</t>
+          <t>88,66; 94,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>89,98; 95,56</t>
+          <t>89,77; 95,64</t>
         </is>
       </c>
     </row>
@@ -962,17 +963,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>48,26%</t>
+          <t>48,27%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>91,58%</t>
+          <t>91,94%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>95,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -982,12 +983,12 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>92,8%</t>
+          <t>92,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>96,46%</t>
+          <t>96,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -997,12 +998,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>92,21%</t>
+          <t>92,14%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>96,12%</t>
+          <t>96,19%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,09; 55,03</t>
+          <t>42,11; 54,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>87,36; 94,69</t>
+          <t>88,01; 94,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>93,04; 97,66</t>
+          <t>93,13; 97,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>41,79; 52,86</t>
+          <t>41,2; 52,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,67; 95,51</t>
+          <t>89,18; 95,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,77; 98,21</t>
+          <t>94,05; 98,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>43,19; 51,95</t>
+          <t>43,66; 52,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>89,38; 94,4</t>
+          <t>89,55; 94,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>94,23; 97,46</t>
+          <t>94,38; 97,44</t>
         </is>
       </c>
     </row>
@@ -1077,12 +1078,12 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>90,38%</t>
+          <t>89,98%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>91,66%</t>
+          <t>91,41%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1092,27 +1093,27 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>95,21%</t>
+          <t>95,36%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>94,87%</t>
+          <t>95,19%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>30,07%</t>
+          <t>30,08%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>92,81%</t>
+          <t>92,67%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>93,27%</t>
+          <t>93,3%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>23,1; 34,7</t>
+          <t>22,52; 35,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>81,39; 94,61</t>
+          <t>81,22; 93,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>83,71; 94,67</t>
+          <t>85,05; 94,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,6; 38,56</t>
+          <t>25,32; 37,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>89,87; 97,71</t>
+          <t>90,91; 97,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>87,66; 97,61</t>
+          <t>89,32; 97,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>25,68; 34,51</t>
+          <t>25,45; 34,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>87,65; 95,36</t>
+          <t>88,72; 95,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>89,68; 95,63</t>
+          <t>89,42; 95,68</t>
         </is>
       </c>
     </row>
@@ -1187,12 +1188,12 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>88,85%</t>
+          <t>88,29%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>94,27%</t>
+          <t>94,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1202,7 +1203,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>93,1%</t>
+          <t>92,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1217,12 +1218,12 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>91,28%</t>
+          <t>90,54%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>95,82%</t>
+          <t>95,72%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,76; 37,28</t>
+          <t>23,17; 36,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>76,97; 93,98</t>
+          <t>77,34; 93,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>89,97; 96,93</t>
+          <t>89,18; 96,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,67; 31,63</t>
+          <t>19,34; 31,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>87,76; 96,37</t>
+          <t>87,28; 95,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>93,75; 98,7</t>
+          <t>94,21; 98,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>23,05; 31,61</t>
+          <t>23,04; 32,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>85,87; 94,17</t>
+          <t>84,78; 93,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>93,58; 97,41</t>
+          <t>93,01; 97,29</t>
         </is>
       </c>
     </row>
@@ -1297,12 +1298,12 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>90,04%</t>
+          <t>89,74%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>93,27%</t>
+          <t>93,14%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1312,27 +1313,27 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>93,23%</t>
+          <t>92,81%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>96,05%</t>
+          <t>96,16%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>38,95%</t>
+          <t>38,96%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>91,67%</t>
+          <t>91,3%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>94,68%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>35,37; 41,18</t>
+          <t>35,08; 41,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>87,32; 92,31</t>
+          <t>86,84; 91,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>91,11; 94,9</t>
+          <t>90,91; 94,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>37,33; 42,48</t>
+          <t>37,49; 42,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>91,33; 94,57</t>
+          <t>91,13; 94,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,52; 97,1</t>
+          <t>94,93; 97,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>37,13; 41,13</t>
+          <t>37,03; 40,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>90,12; 93,01</t>
+          <t>89,45; 92,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>93,52; 95,63</t>
+          <t>93,47; 95,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1405,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por contagiarse de coronavirus o ya le ha ocurrido (tasa de respuesta: 97,67%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>254.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>304.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>139530</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>437829</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>475328</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>138280</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>419435</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>492347</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>277810</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>857264</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>967674</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>104967; 174764</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>406263; 461719</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>423535; 499691</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>108946; 176801</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>397700; 438068</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>454146; 506424</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>233523; 326577</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>823641; 889166</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>916003; 998144</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>301.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>392.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>217858</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>500205</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>540056</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>226789</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>473677</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>477566</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>444648</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>973882</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1017622</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>173107; 263524</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>409908; 534711</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>521306; 552982</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>190355; 259416</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>442395; 493053</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>456471; 490560</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>382866; 500981</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>895649; 1008859</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>990059; 1036210</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>264.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>348.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>279.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>465.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>601.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>300874</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>613319</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>612269</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>327428</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>653772</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>686747</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>628302</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1267092</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1299016</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>255055; 345329</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>563019; 639983</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>563346; 638708</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>290501; 366367</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>621280; 672739</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>670791; 698367</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>567797; 686076</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1215396; 1300321</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1245830; 1327367</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>345.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>269.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>514.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>630.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>293066</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>592908</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>608153</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>277400</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>619933</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>645340</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>570466</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1212841</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1253493</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>255670; 333371</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>567548; 612449</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>590883; 620396</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>243667; 310890</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>598800; 640323</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>628809; 656950</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>523298; 628933</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1178763; 1239725</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1229803; 1269749</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>395.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>489.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>131802</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>443835</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>457320</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>131031</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>471135</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>475306</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>262833</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>914972</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>932626</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>103478; 161005</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>400614; 463459</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>425462; 475192</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>104935; 157156</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>449168; 482419</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>445992; 488053</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>222420; 299843</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>875999; 941099</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>893795; 956430</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>355.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>420.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>124468</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>468338</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>491575</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>129966</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>659302</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>643481</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>254434</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1127640</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1135056</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>96908; 154533</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>410248; 496368</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>466275; 505413</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>99517; 160672</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>624100; 682290</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>624575; 655672</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>214905; 302089</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1055880; 1163451</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1102893; 1153662</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>492.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1042.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1261.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>561.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1242.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1575.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1053.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2284.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2836.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1207598</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3056435</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3184702</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1230894</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3297255</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>3420785</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2438492</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>6353690</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>6605488</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1114944; 1305428</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2957821; 3127223</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>3108509; 3231332</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1155321; 1322663</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3237880; 3350642</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3376725; 3456276</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2317740; 2565775</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>6225016; 6443883</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>6520670; 6667545</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>